--- a/Correlation data/Correlations_Herbivores.xlsx
+++ b/Correlation data/Correlations_Herbivores.xlsx
@@ -1,71 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d03c6ea88daad3e/Documenten/Shimoni/DATA/R/Github/Herbivory/Herbivory grazing/Correlation data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_CF63FDCE8F79A8D366075C52F39702B7B4BFA390" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A648877-72D0-416D-A190-6255B92C50F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Biomass.loc.herb</t>
-  </si>
-  <si>
-    <t>Biomass.loc.herb.se</t>
-  </si>
-  <si>
-    <t>Biomass.loc.grazers</t>
-  </si>
-  <si>
-    <t>Biomass.loc.grazers.se</t>
-  </si>
-  <si>
-    <t>Biomass.loc.cte</t>
-  </si>
-  <si>
-    <t>Biomass.loc.cte.se</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,47 +350,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass.loc.herb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass.loc.herb.se</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass.loc.grazers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass.loc.grazers.se</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass.loc.cte</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass.loc.cte.se</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2">
         <v>58.39027556389722</v>
@@ -496,24 +410,26 @@
         <v>13.46266934082059</v>
       </c>
       <c r="E2">
-        <v>10.144594912876279</v>
+        <v>10.14459491287628</v>
       </c>
       <c r="F2">
-        <v>3.2003268462173322</v>
+        <v>3.200326846217332</v>
       </c>
       <c r="G2">
         <v>1.999352382883077</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3">
-        <v>34.380517810237492</v>
+        <v>34.38051781023749</v>
       </c>
       <c r="C3">
-        <v>8.2853035607668577</v>
+        <v>8.285303560766858</v>
       </c>
       <c r="D3">
         <v>22.5352489004297</v>
@@ -522,27 +438,29 @@
         <v>7.642175508201265</v>
       </c>
       <c r="F3">
-        <v>7.9016674272570233</v>
+        <v>7.901667427257023</v>
       </c>
       <c r="G3">
-        <v>5.6062463191351162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
+        <v>5.606246319135116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4">
-        <v>41.026989425279467</v>
+        <v>41.02698942527947</v>
       </c>
       <c r="C4">
-        <v>16.487757862751149</v>
+        <v>16.48775786275115</v>
       </c>
       <c r="D4">
-        <v>14.331455230023399</v>
+        <v>14.3314552300234</v>
       </c>
       <c r="E4">
-        <v>3.2920390636289878</v>
+        <v>3.292039063628988</v>
       </c>
       <c r="F4">
         <v>10.40281347349098</v>
@@ -551,73 +469,79 @@
         <v>2.417319798779658</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5">
         <v>161.5766309159664</v>
       </c>
       <c r="C5">
-        <v>70.411325100512983</v>
+        <v>70.41132510051298</v>
       </c>
       <c r="D5">
-        <v>51.956351755290591</v>
+        <v>51.95635175529059</v>
       </c>
       <c r="E5">
-        <v>26.043540472067679</v>
+        <v>26.04354047206768</v>
       </c>
       <c r="F5">
-        <v>34.061179640322337</v>
+        <v>34.06117964032234</v>
       </c>
       <c r="G5">
         <v>19.43989953644812</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6">
-        <v>247.96407216622259</v>
+        <v>247.9640721662226</v>
       </c>
       <c r="C6">
-        <v>105.25022018784171</v>
+        <v>105.2502201878417</v>
       </c>
       <c r="D6">
-        <v>86.643993829062467</v>
+        <v>86.64399382906247</v>
       </c>
       <c r="E6">
-        <v>40.510425737616842</v>
+        <v>40.51042573761684</v>
       </c>
       <c r="F6">
         <v>17.0060585583945</v>
       </c>
       <c r="G6">
-        <v>7.1201333509231493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
+        <v>7.120133350923149</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7">
-        <v>390.76879701652598</v>
+        <v>390.768797016526</v>
       </c>
       <c r="C7">
-        <v>154.12349055073051</v>
+        <v>154.1234905507305</v>
       </c>
       <c r="D7">
-        <v>56.004384274444448</v>
+        <v>56.00438427444445</v>
       </c>
       <c r="E7">
-        <v>21.603234394659228</v>
+        <v>21.60323439465923</v>
       </c>
       <c r="F7">
-        <v>0.75480405644177162</v>
+        <v>0.7548040564417716</v>
       </c>
       <c r="G7">
-        <v>0.60074903297939208</v>
+        <v>0.6007490329793921</v>
       </c>
     </row>
   </sheetData>
